--- a/project_files/files/templates/rep_captura_manifiestos.xlsx
+++ b/project_files/files/templates/rep_captura_manifiestos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Manifiesto</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Tipo de Incidencia</t>
+  </si>
+  <si>
+    <t>Incidencia</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Fecha Programada</t>
+  </si>
+  <si>
+    <t>Fecha de Embarque</t>
   </si>
 </sst>
 </file>
@@ -66,7 +81,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,13 +104,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -430,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -438,27 +467,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="9" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
